--- a/SourceCode/2023/August2023/Deekshitha/Task 13 and Task 14/Example.xlsx
+++ b/SourceCode/2023/August2023/Deekshitha/Task 13 and Task 14/Example.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA Course\RPA-Developer-in-30-Days\RPA-Developer-in-30-Days\SourceCode\2023\August2023\Deekshitha\Task 13 and Task 14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7243D7-3479-4694-84FB-59342E04714D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCCE4D2-1C6D-4C12-8964-DE7FBEB045DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C63C2C64-CF5C-4E25-BD99-9258869FDF72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -126,7 +115,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -138,7 +127,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -185,23 +174,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -237,23 +209,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -405,11 +360,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385D56BD-B89E-4423-A5D4-AD5F7E435193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F1F2D0-ABFA-4A97-A0FC-4AF2757D3F25}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,49 +445,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2218AB48-B108-4F41-ADCF-B25E5FB4211E}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="B8:C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>